--- a/BJ.xlsx
+++ b/BJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smontalvo\Documents\R\BOMBTvsBJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D6BAB5-5C37-4523-AFD3-4A67A82A54B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14026877-193A-4D8A-8386-5994D7EBB4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{9880B067-68B6-44B5-945C-3BEE949663DB}"/>
   </bookViews>
